--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl12-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl12-Ackr2.xlsx
@@ -540,10 +540,10 @@
         <v>0.846464</v>
       </c>
       <c r="I2">
-        <v>0.003251136722938652</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="J2">
-        <v>0.003251136722938651</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -570,10 +570,10 @@
         <v>0.15844536384</v>
       </c>
       <c r="S2">
-        <v>0.003251136722938652</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="T2">
-        <v>0.003251136722938651</v>
+        <v>0.005723000769734084</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.96940366666666</v>
+        <v>30.199365</v>
       </c>
       <c r="H3">
-        <v>167.908211</v>
+        <v>90.598095</v>
       </c>
       <c r="I3">
-        <v>0.6449093533393406</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="J3">
-        <v>0.6449093533393405</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>3.492210941781666</v>
+        <v>1.884289379175</v>
       </c>
       <c r="R3">
-        <v>31.429898476035</v>
+        <v>16.958604412575</v>
       </c>
       <c r="S3">
-        <v>0.6449093533393406</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="T3">
-        <v>0.6449093533393405</v>
+        <v>0.6125398923302606</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.53490766666667</v>
+        <v>18.820355</v>
       </c>
       <c r="H4">
-        <v>91.60472300000001</v>
+        <v>56.461065</v>
       </c>
       <c r="I4">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="J4">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.905225563861667</v>
+        <v>1.174296050225</v>
       </c>
       <c r="R4">
-        <v>17.147030074755</v>
+        <v>10.568664452025</v>
       </c>
       <c r="S4">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="T4">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
     </row>
   </sheetData>
